--- a/biology/Médecine/Ottaviano_Ferrari/Ottaviano_Ferrari.xlsx
+++ b/biology/Médecine/Ottaviano_Ferrari/Ottaviano_Ferrari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ottaviano Ferrari, né le 25 septembre 1518 à Milan et mort dans cette même ville en 1586, est un philosophe italien du XVIe siècle.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 25 septembre 1518[1] à Milan, il était de la même famille qu’Ottavio Ferrari, avec lequel la ressemblance du prénom l’a fait confondre quelquefois. On conjecture que son père se nommait Girolamo[2]. Dans sa jeunesse il fréquenta les plis importantes universités d’Italie, s'adonna aux lettres à la philosophie et momentanément à la médecine. De retour à Milan, il y passa quelques années, son nom figure, en 1548, dans la liste des professeurs de l’université de Pavie[3] ; il y remplissait la chaire de logique jusqu'en 1554. Il s'adonne à l’enseignement de la philosophie à Milan, dans l’école fondée l’année précédente par Paolo Canobio, la Canobienne. Ottaviano y professa dix-huit ans. Lié d’amitié avec Paul Manuce et Giulio Poggiani, il entretenait avec eux une correspondance dont on retrouve des traces dans leurs recueils épistolaires. II consacra les dernières années de sa vie à la rédaction d’ouvrages ; mais il n’avait pu terminer ses recherches sur l’origine des Romains lorsqu’il mourut, en 1586.
-Son éloge funèbre fut prononcé par deux de ses amis, Bartolomeo Capra[4], savant jurisconsulte, qu’il avait institué son exécuteur testamentaire, et Francesco Ciceri, grammairien[5]. La mémoire d’Ottaviano fut honorée d’une médaille, qui est gravée dans le Museum Mazzuchellianum, t. 1, pl. 89.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 25 septembre 1518 à Milan, il était de la même famille qu’Ottavio Ferrari, avec lequel la ressemblance du prénom l’a fait confondre quelquefois. On conjecture que son père se nommait Girolamo. Dans sa jeunesse il fréquenta les plis importantes universités d’Italie, s'adonna aux lettres à la philosophie et momentanément à la médecine. De retour à Milan, il y passa quelques années, son nom figure, en 1548, dans la liste des professeurs de l’université de Pavie ; il y remplissait la chaire de logique jusqu'en 1554. Il s'adonne à l’enseignement de la philosophie à Milan, dans l’école fondée l’année précédente par Paolo Canobio, la Canobienne. Ottaviano y professa dix-huit ans. Lié d’amitié avec Paul Manuce et Giulio Poggiani, il entretenait avec eux une correspondance dont on retrouve des traces dans leurs recueils épistolaires. II consacra les dernières années de sa vie à la rédaction d’ouvrages ; mais il n’avait pu terminer ses recherches sur l’origine des Romains lorsqu’il mourut, en 1586.
+Son éloge funèbre fut prononcé par deux de ses amis, Bartolomeo Capra, savant jurisconsulte, qu’il avait institué son exécuteur testamentaire, et Francesco Ciceri, grammairien. La mémoire d’Ottaviano fut honorée d’une médaille, qui est gravée dans le Museum Mazzuchellianum, t. 1, pl. 89.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre quelques Lettres latines et italiennes, imprimées avec celles de Manuce et de Poggiani, on a de Ferrari :
 De disciplina encyclio, Venise, Paul Manuce, 1560, in-4°. C’est une espèce d’encyclopédie servant d’introduction à l’étude de la philosophie d’Aristote.
